--- a/Projeto Python/planilha.xlsx
+++ b/Projeto Python/planilha.xlsx
@@ -723,7 +723,7 @@
       </c>
       <c r="I5" s="14" t="inlineStr">
         <is>
-          <t>]]]]</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="J5" s="13" t="n"/>
